--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B688268-18AC-475E-ADB4-61A4F065EB1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503577E-732A-42BE-A835-8EAE69F403A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>AI Results</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>7.2 hours</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua 1 UCT sqrt2 vs MCTS 10k Sarasua 1 UCT 0.5</t>
+  </si>
+  <si>
+    <t>10.5/20</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua 1 UCT sqrt2 vs MCTS 10k Sarasua 1 UCT 5</t>
+  </si>
+  <si>
+    <t>11.0/20</t>
   </si>
 </sst>
 </file>
@@ -461,16 +473,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EA307-2F1F-4558-A660-8CF283252646}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -572,6 +584,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
@@ -581,6 +598,30 @@
       </c>
       <c r="D10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <f>8059/60/60</f>
+        <v>2.2386111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <f>10090/3600</f>
+        <v>2.8027777777777776</v>
       </c>
     </row>
   </sheetData>

--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503577E-732A-42BE-A835-8EAE69F403A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17896904-CE7C-43B6-88BB-656DA017C672}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>AI Results</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>11.0/20</t>
+  </si>
+  <si>
+    <t>23/50</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua1 0 Chaos vs MCTS Sarasua1 0.15 Chaos</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EA307-2F1F-4558-A660-8CF283252646}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +630,18 @@
         <v>2.8027777777777776</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <f>22684/3600</f>
+        <v>6.3011111111111111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17896904-CE7C-43B6-88BB-656DA017C672}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E4B7DF-1AB7-4071-AD6B-4C95495A2411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>AI Results</t>
   </si>
@@ -127,13 +127,34 @@
   </si>
   <si>
     <t>MCTS 10k Sarasua1 0 Chaos vs MCTS Sarasua1 0.15 Chaos</t>
+  </si>
+  <si>
+    <t>MCTS 20k RandomPLUS vs Big Money</t>
+  </si>
+  <si>
+    <t>61.5/100</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Simulations</t>
+  </si>
+  <si>
+    <t>Win %</t>
+  </si>
+  <si>
+    <t>MCTS results against C=√2</t>
+  </si>
+  <si>
+    <t>C Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +162,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,9 +196,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +217,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5F86270-4CDE-449F-881A-53A92173EAD4}" name="Table3" displayName="Table3" ref="B20:E22" totalsRowShown="0">
+  <autoFilter ref="B20:E22" xr:uid="{17D7722B-6034-4B05-88C6-412D0685B0A1}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A1679219-C9E4-45A0-BEF4-B65CE4B95BFD}" name="C Value"/>
+    <tableColumn id="2" xr3:uid="{8837B049-1314-46A7-8FEB-954E0C05D198}" name="Wins"/>
+    <tableColumn id="3" xr3:uid="{230A7E7F-5C85-4521-950C-4A8D316DE790}" name="Simulations"/>
+    <tableColumn id="4" xr3:uid="{4C3680D7-00C8-4EDB-845A-BD0A32CDC885}" name="Win %">
+      <calculatedColumnFormula>C21/D21</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EA307-2F1F-4558-A660-8CF283252646}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +694,77 @@
         <v>6.3011111111111111</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <f>63877/60/60</f>
+        <v>17.743611111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>9.5</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f>C21/D21</f>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <f>C22/D22</f>
+        <v>0.45</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:E19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E4B7DF-1AB7-4071-AD6B-4C95495A2411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0BE577-80B6-404D-9834-FFF0C2EFD855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>AI Results</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>C Value</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua1 0.15 chaos use heuristics vs Double Witch</t>
+  </si>
+  <si>
+    <t>56.5/100</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,6 +712,18 @@
         <v>17.743611111111111</v>
       </c>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <f>17143/3600</f>
+        <v>4.7619444444444445</v>
+      </c>
+    </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>36</v>

--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0BE577-80B6-404D-9834-FFF0C2EFD855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D998B7-73E4-49FB-A8F7-304C0B066033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>AI Results</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t>56.5/100</t>
+  </si>
+  <si>
+    <t>MCTS 10k RandomPLUS Heuristics vs All Moves</t>
+  </si>
+  <si>
+    <t>29/50</t>
+  </si>
+  <si>
+    <t>MCTS 10k RandomPLUS vs MCTS 10k Greedy</t>
+  </si>
+  <si>
+    <t>21/50</t>
+  </si>
+  <si>
+    <t>MCTS 10k Greedy Heuristics vs Double Witch</t>
+  </si>
+  <si>
+    <t>56/100</t>
+  </si>
+  <si>
+    <t>93/100</t>
+  </si>
+  <si>
+    <t>MCTS 10k Greedy Heuristics vs Big Money</t>
   </si>
 </sst>
 </file>
@@ -226,14 +250,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5F86270-4CDE-449F-881A-53A92173EAD4}" name="Table3" displayName="Table3" ref="B20:E22" totalsRowShown="0">
-  <autoFilter ref="B20:E22" xr:uid="{17D7722B-6034-4B05-88C6-412D0685B0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5F86270-4CDE-449F-881A-53A92173EAD4}" name="Table3" displayName="Table3" ref="B29:E31" totalsRowShown="0">
+  <autoFilter ref="B29:E31" xr:uid="{17D7722B-6034-4B05-88C6-412D0685B0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A1679219-C9E4-45A0-BEF4-B65CE4B95BFD}" name="C Value"/>
     <tableColumn id="2" xr3:uid="{8837B049-1314-46A7-8FEB-954E0C05D198}" name="Wins"/>
     <tableColumn id="3" xr3:uid="{230A7E7F-5C85-4521-950C-4A8D316DE790}" name="Simulations"/>
     <tableColumn id="4" xr3:uid="{4C3680D7-00C8-4EDB-845A-BD0A32CDC885}" name="Win %">
-      <calculatedColumnFormula>C21/D21</calculatedColumnFormula>
+      <calculatedColumnFormula>C30/D30</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -537,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EA307-2F1F-4558-A660-8CF283252646}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,61 +748,113 @@
         <v>4.7619444444444445</v>
       </c>
     </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <f>22048/3600</f>
+        <v>6.1244444444444444</v>
+      </c>
+      <c r="E18">
+        <f>29*2</f>
+        <v>58</v>
+      </c>
+    </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <f>30481/3600</f>
+        <v>8.4669444444444437</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <f>15154/3600</f>
+        <v>4.2094444444444443</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <f>13182/3600</f>
+        <v>3.6616666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>0.5</v>
       </c>
-      <c r="C21">
+      <c r="C30">
         <v>9.5</v>
       </c>
-      <c r="D21">
+      <c r="D30">
         <v>20</v>
       </c>
-      <c r="E21">
-        <f>C21/D21</f>
+      <c r="E30">
+        <f>C30/D30</f>
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="C31">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D31">
         <v>20</v>
       </c>
-      <c r="E22">
-        <f>C22/D22</f>
+      <c r="E31">
+        <f>C31/D31</f>
         <v>0.45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D998B7-73E4-49FB-A8F7-304C0B066033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E2D3D-368A-44E4-BBFD-B6E50A4BDADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>AI Results</t>
   </si>
@@ -178,6 +178,33 @@
   </si>
   <si>
     <t>MCTS 10k Greedy Heuristics vs Big Money</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua1 Heuristics vs MCTS 10k Sarasua1 All Moves</t>
+  </si>
+  <si>
+    <t>37.5/50</t>
+  </si>
+  <si>
+    <t>Sarasua1</t>
+  </si>
+  <si>
+    <t>0/200</t>
+  </si>
+  <si>
+    <t>196/200</t>
+  </si>
+  <si>
+    <t>47/200</t>
+  </si>
+  <si>
+    <t>186/200</t>
+  </si>
+  <si>
+    <t>149.5/200</t>
+  </si>
+  <si>
+    <t>126/200</t>
   </si>
 </sst>
 </file>
@@ -561,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EA307-2F1F-4558-A660-8CF283252646}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +763,7 @@
         <v>17.743611111111111</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -748,7 +775,7 @@
         <v>4.7619444444444445</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -763,8 +790,23 @@
         <f>29*2</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -775,8 +817,26 @@
         <f>30481/3600</f>
         <v>8.4669444444444437</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -787,8 +847,23 @@
         <f>15154/3600</f>
         <v>4.2094444444444443</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>47</v>
       </c>
@@ -799,8 +874,71 @@
         <f>13182/3600</f>
         <v>3.6616666666666666</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <f>21527/3600</f>
+        <v>5.9797222222222226</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23">
+        <f>126/200</f>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -808,7 +946,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -822,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.5</v>
       </c>
@@ -837,7 +975,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>5</v>
       </c>

--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E2D3D-368A-44E4-BBFD-B6E50A4BDADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B09153-C585-49C3-84FE-154B423E50EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>AI Results</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>126/200</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua1 Heuristics 0 Chaos vs 0.05 Chaos</t>
+  </si>
+  <si>
+    <t>18.5/50</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,6 +924,16 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <f>15930/3600</f>
+        <v>4.4249999999999998</v>
+      </c>
       <c r="G23" t="s">
         <v>50</v>
       </c>

--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B09153-C585-49C3-84FE-154B423E50EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC759414-459D-46A2-90AC-2CBCCF766B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="21600" windowHeight="10400" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>AI Results</t>
   </si>
@@ -211,6 +211,48 @@
   </si>
   <si>
     <t>18.5/50</t>
+  </si>
+  <si>
+    <t>Need to run</t>
+  </si>
+  <si>
+    <t>MCTS 10k Greedy vs 10k RandomPLUS</t>
+  </si>
+  <si>
+    <t>MCTS 10k Greedy vs 10k Sarasua1</t>
+  </si>
+  <si>
+    <t>MCTS 10k Greedy vs Big Money</t>
+  </si>
+  <si>
+    <t>MCTS 10k Greedy vs Double Witch</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua1 Heuristics 0 Chaos vs 0.1 Chaos</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua1 Heuristics 0 Chaos vs 0.15 Chaos</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua1 Heuristics 0.05 Chaos vs Double Witch</t>
+  </si>
+  <si>
+    <t>87.5/100</t>
+  </si>
+  <si>
+    <t>39.5/100</t>
+  </si>
+  <si>
+    <t>27/100</t>
+  </si>
+  <si>
+    <t>MCTS 10k Greedy vs Sarasua1</t>
+  </si>
+  <si>
+    <t>25/50</t>
+  </si>
+  <si>
+    <t>27.5/50</t>
   </si>
 </sst>
 </file>
@@ -283,14 +325,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5F86270-4CDE-449F-881A-53A92173EAD4}" name="Table3" displayName="Table3" ref="B29:E31" totalsRowShown="0">
-  <autoFilter ref="B29:E31" xr:uid="{17D7722B-6034-4B05-88C6-412D0685B0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5F86270-4CDE-449F-881A-53A92173EAD4}" name="Table3" displayName="Table3" ref="B36:E38" totalsRowShown="0">
+  <autoFilter ref="B36:E38" xr:uid="{17D7722B-6034-4B05-88C6-412D0685B0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A1679219-C9E4-45A0-BEF4-B65CE4B95BFD}" name="C Value"/>
     <tableColumn id="2" xr3:uid="{8837B049-1314-46A7-8FEB-954E0C05D198}" name="Wins"/>
     <tableColumn id="3" xr3:uid="{230A7E7F-5C85-4521-950C-4A8D316DE790}" name="Simulations"/>
     <tableColumn id="4" xr3:uid="{4C3680D7-00C8-4EDB-845A-BD0A32CDC885}" name="Win %">
-      <calculatedColumnFormula>C30/D30</calculatedColumnFormula>
+      <calculatedColumnFormula>C37/D37</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -594,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EA307-2F1F-4558-A660-8CF283252646}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +787,16 @@
         <v>2.8027777777777776</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>4/100*60</f>
+        <v>2.4</v>
+      </c>
+      <c r="G14">
+        <f>8.5*60/50</f>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>30</v>
@@ -954,61 +1006,149 @@
         <v>0.63</v>
       </c>
     </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <f>37.5/50</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <f>47281/3600</f>
+        <v>13.133611111111112</v>
+      </c>
+      <c r="E26">
+        <f>10.5/20</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <f>41475/3600</f>
+        <v>11.520833333333334</v>
+      </c>
+    </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <f>25488/3600</f>
+        <v>7.08</v>
+      </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <f>14670/3600</f>
+        <v>4.0750000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <f>21615/3600</f>
+        <v>6.0041666666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C36" t="s">
         <v>33</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>0.5</v>
       </c>
-      <c r="C30">
+      <c r="C37">
         <v>9.5</v>
       </c>
-      <c r="D30">
+      <c r="D37">
         <v>20</v>
       </c>
-      <c r="E30">
-        <f>C30/D30</f>
+      <c r="E37">
+        <f>C37/D37</f>
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="C31">
+      <c r="C38">
         <v>9</v>
       </c>
-      <c r="D31">
+      <c r="D38">
         <v>20</v>
       </c>
-      <c r="E31">
-        <f>C31/D31</f>
+      <c r="E38">
+        <f>C38/D38</f>
         <v>0.45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC759414-459D-46A2-90AC-2CBCCF766B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50896560-F9BB-48F0-9177-DE95450D0A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="21600" windowHeight="10400" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>AI Results</t>
   </si>
@@ -253,6 +253,39 @@
   </si>
   <si>
     <t>27.5/50</t>
+  </si>
+  <si>
+    <t>MCTS 10k Sarasua1 Everything</t>
+  </si>
+  <si>
+    <t>53.5/100</t>
+  </si>
+  <si>
+    <t>MCTS 20k Sarasua1 Everything vs Double Witch</t>
+  </si>
+  <si>
+    <t>13.5/20</t>
+  </si>
+  <si>
+    <t>8./20</t>
+  </si>
+  <si>
+    <t>MCTS 20k Sarasua1 Everything vs Sarasua1</t>
+  </si>
+  <si>
+    <t>19/50</t>
+  </si>
+  <si>
+    <t>MCTS 20k Greedy Everything vs Double Witch</t>
+  </si>
+  <si>
+    <t>13/20</t>
+  </si>
+  <si>
+    <t>MCTS 20k Greedy Everything vs Sarasua1</t>
+  </si>
+  <si>
+    <t>3./20</t>
   </si>
 </sst>
 </file>
@@ -325,14 +358,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5F86270-4CDE-449F-881A-53A92173EAD4}" name="Table3" displayName="Table3" ref="B36:E38" totalsRowShown="0">
-  <autoFilter ref="B36:E38" xr:uid="{17D7722B-6034-4B05-88C6-412D0685B0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5F86270-4CDE-449F-881A-53A92173EAD4}" name="Table3" displayName="Table3" ref="B42:E44" totalsRowShown="0">
+  <autoFilter ref="B42:E44" xr:uid="{17D7722B-6034-4B05-88C6-412D0685B0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A1679219-C9E4-45A0-BEF4-B65CE4B95BFD}" name="C Value"/>
     <tableColumn id="2" xr3:uid="{8837B049-1314-46A7-8FEB-954E0C05D198}" name="Wins"/>
     <tableColumn id="3" xr3:uid="{230A7E7F-5C85-4521-950C-4A8D316DE790}" name="Simulations"/>
     <tableColumn id="4" xr3:uid="{4C3680D7-00C8-4EDB-845A-BD0A32CDC885}" name="Win %">
-      <calculatedColumnFormula>C37/D37</calculatedColumnFormula>
+      <calculatedColumnFormula>C43/D43</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -636,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EA307-2F1F-4558-A660-8CF283252646}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,6 +796,12 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>74/200</f>
+        <v>0.37</v>
+      </c>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
@@ -1066,6 +1105,10 @@
         <f>14670/3600</f>
         <v>4.0750000000000002</v>
       </c>
+      <c r="I29">
+        <f>1657/3600/10*60*40</f>
+        <v>110.46666666666667</v>
+      </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1083,72 +1126,143 @@
       <c r="B31" t="s">
         <v>64</v>
       </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31">
+        <f>21205/3600</f>
+        <v>5.8902777777777775</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <f>23334/3600</f>
+        <v>6.4816666666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35">
+        <f>11599/3600</f>
+        <v>3.2219444444444445</v>
+      </c>
+      <c r="G35">
+        <f>13.5/20</f>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <f>11887/3600</f>
+        <v>3.3019444444444446</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <f>10106/3600</f>
+        <v>2.8072222222222223</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38">
+        <f>6815/3600</f>
+        <v>1.8930555555555555</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D42" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>0.5</v>
       </c>
-      <c r="C37">
+      <c r="C43">
         <v>9.5</v>
       </c>
-      <c r="D37">
+      <c r="D43">
         <v>20</v>
       </c>
-      <c r="E37">
-        <f>C37/D37</f>
+      <c r="E43">
+        <f>C43/D43</f>
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>5</v>
       </c>
-      <c r="C38">
+      <c r="C44">
         <v>9</v>
       </c>
-      <c r="D38">
+      <c r="D44">
         <v>20</v>
       </c>
-      <c r="E38">
-        <f>C38/D38</f>
+      <c r="E44">
+        <f>C44/D44</f>
         <v>0.45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Thesis/MCTS Test Results.xlsx
+++ b/Thesis/MCTS Test Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50896560-F9BB-48F0-9177-DE95450D0A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F14647-4DD1-4178-9EB4-01057F65EA8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297119D3-728E-4160-A353-DB4FFAD81E09}"/>
   </bookViews>
@@ -672,7 +672,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,18 +1133,22 @@
         <f>21205/3600</f>
         <v>5.8902777777777775</v>
       </c>
+      <c r="F31">
+        <f>19/50</f>
+        <v>0.38</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -1155,8 +1159,12 @@
         <f>23334/3600</f>
         <v>6.4816666666666665</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f>13.5/20</f>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>75</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>78</v>
       </c>
@@ -1184,7 +1192,7 @@
         <v>3.3019444444444446</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>80</v>
       </c>
@@ -1195,8 +1203,16 @@
         <f>10106/3600</f>
         <v>2.8072222222222223</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f>8/20</f>
+        <v>0.4</v>
+      </c>
+      <c r="H37">
+        <f>13/20</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>82</v>
       </c>
@@ -1207,8 +1223,12 @@
         <f>6815/3600</f>
         <v>1.8930555555555555</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1236,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>37</v>
       </c>
@@ -1230,7 +1250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.5</v>
       </c>
@@ -1245,7 +1265,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>5</v>
       </c>
